--- a/01_stack/metrics.xlsx
+++ b/01_stack/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Programming\ooap1\01_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3477481-0300-4D63-9464-49D019658A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0922EA-C216-4008-8F85-550834181908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" s="3">
         <f ca="1">SUM(C16:C18)</f>
-        <v>4.9999999999998224</v>
+        <v>24.999999999999751</v>
       </c>
       <c r="C3" s="3">
         <f>SUM(B16:B18)</f>
@@ -724,7 +724,7 @@
       </c>
       <c r="E3" s="20">
         <f t="shared" ref="E3:E7" ca="1" si="0">C3/B3</f>
-        <v>14.000000000000497</v>
+        <v>2.8000000000000278</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">SUM(C15:C19)</f>
-        <v>8.9999999999998082</v>
+        <v>28.999999999999737</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(B15:B19)</f>
@@ -741,7 +741,7 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>10.000000000000213</v>
+        <v>3.1034482758620969</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
       </c>
       <c r="B7" s="10">
         <f ca="1">IF(B4&gt;0,B6/B4*60,0)</f>
-        <v>6.6666666666668091</v>
+        <v>2.0689655172413981</v>
       </c>
       <c r="C7" s="10">
         <f>IF(C4&gt;0,C6/C4*60,0)</f>
@@ -798,7 +798,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39999999999999147</v>
+        <v>1.2888888888888774</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,8 +924,8 @@
         <v>30</v>
       </c>
       <c r="C17" s="3">
-        <f>SUMIF(Сессии!$A$2:$A$10001,$A17,Сессии!$I$2:$I$10001)</f>
-        <v>0</v>
+        <f ca="1">SUMIF(Сессии!$A$2:$A$10001,$A17,Сессии!$I$2:$I$10001)</f>
+        <v>19.999999999999929</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,6 +1319,9 @@
       <c r="C5" s="17">
         <v>0.74097222222222225</v>
       </c>
+      <c r="D5" s="17">
+        <v>0.75486111111111109</v>
+      </c>
       <c r="E5" s="12">
         <f ca="1">IF(F5&gt;0,SUM(OFFSET(E6,0,0,F5,1)),0)</f>
         <v>0</v>
@@ -1330,11 +1333,11 @@
       <c r="G5" s="23"/>
       <c r="H5" s="18">
         <f>IF(D5&lt;&gt;"",(D5-C5)*1440,0)</f>
-        <v>0</v>
+        <v>19.999999999999929</v>
       </c>
       <c r="I5" s="18">
-        <f>IF(H5&gt;0,H5-E5,0)</f>
-        <v>0</v>
+        <f ca="1">IF(H5&gt;0,H5-E5,0)</f>
+        <v>19.999999999999929</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">

--- a/01_stack/metrics.xlsx
+++ b/01_stack/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Programming\ooap1\01_stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0922EA-C216-4008-8F85-550834181908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FAFA84-5328-42C9-ADB3-D7C8D06172E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводка" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>Тип</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>Конструктор не получает параметр - максимальный размер</t>
+  </si>
+  <si>
+    <t>начало</t>
+  </si>
+  <si>
+    <t>готово</t>
+  </si>
+  <si>
+    <t>завершено</t>
   </si>
 </sst>
 </file>
@@ -659,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9A239B-207E-454C-9FBE-B694E0106EB0}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -694,7 +703,7 @@
       </c>
       <c r="B2">
         <f ca="1">Объём!D2</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C2" s="14">
         <v>200</v>
@@ -702,9 +711,9 @@
       <c r="D2" s="14">
         <v>100</v>
       </c>
-      <c r="E2" s="20" t="e">
+      <c r="E2" s="20">
         <f ca="1">C2/B2</f>
-        <v>#DIV/0!</v>
+        <v>1.0309278350515463</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,7 +722,7 @@
       </c>
       <c r="B3" s="3">
         <f ca="1">SUM(C16:C18)</f>
-        <v>24.999999999999751</v>
+        <v>49.999999999999822</v>
       </c>
       <c r="C3" s="3">
         <f>SUM(B16:B18)</f>
@@ -724,7 +733,7 @@
       </c>
       <c r="E3" s="20">
         <f t="shared" ref="E3:E7" ca="1" si="0">C3/B3</f>
-        <v>2.8000000000000278</v>
+        <v>1.400000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,7 +742,7 @@
       </c>
       <c r="B4" s="3">
         <f ca="1">SUM(C15:C19)</f>
-        <v>28.999999999999737</v>
+        <v>53.999999999999808</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(B15:B19)</f>
@@ -741,7 +750,7 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1034482758620969</v>
+        <v>1.6666666666666725</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,7 +759,7 @@
       </c>
       <c r="B5" s="10">
         <f ca="1">IF(B3&gt;0,B2/B3*60,0)</f>
-        <v>0</v>
+        <v>232.80000000000081</v>
       </c>
       <c r="C5" s="10">
         <f>IF(C3&gt;0,C2/C3*60,0)</f>
@@ -762,7 +771,7 @@
       </c>
       <c r="E5" s="20">
         <f ca="1">B5/C5</f>
-        <v>0</v>
+        <v>1.3580000000000045</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,7 +798,7 @@
       </c>
       <c r="B7" s="10">
         <f ca="1">IF(B4&gt;0,B6/B4*60,0)</f>
-        <v>2.0689655172413981</v>
+        <v>1.1111111111111149</v>
       </c>
       <c r="C7" s="10">
         <f>IF(C4&gt;0,C6/C4*60,0)</f>
@@ -798,7 +807,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2888888888888774</v>
+        <v>2.3999999999999919</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,7 +934,7 @@
       </c>
       <c r="C17" s="3">
         <f ca="1">SUMIF(Сессии!$A$2:$A$10001,$A17,Сессии!$I$2:$I$10001)</f>
-        <v>19.999999999999929</v>
+        <v>45</v>
       </c>
       <c r="D17" s="13">
         <v>2</v>
@@ -1189,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,10 +1336,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <f>MATCH(TRUE,INDEX(((A7:A105="")*(E6:E105="")+(A7:A105&lt;&gt;"")&gt;0),),0)-1</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="23"/>
+        <f ca="1">MATCH(TRUE,INDEX(((A7:A105="")*(E6:E105="")+(A7:A105&lt;&gt;"")&gt;0),),0)-1</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="H5" s="18">
         <f>IF(D5&lt;&gt;"",(D5-C5)*1440,0)</f>
         <v>19.999999999999929</v>
@@ -1341,11 +1352,37 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44909</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.94652777777777775</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.96388888888888891</v>
+      </c>
+      <c r="E6" s="12">
+        <f ca="1">IF(F6&gt;0,SUM(OFFSET(E7,0,0,F6,1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <f>MATCH(TRUE,INDEX(((A8:A106="")*(E7:E106="")+(A8:A106&lt;&gt;"")&gt;0),),0)-1</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="18">
+        <f>IF(D6&lt;&gt;"",(D6-C6)*1440,0)</f>
+        <v>25.000000000000071</v>
+      </c>
+      <c r="I6" s="18">
+        <f ca="1">IF(H6&gt;0,H6-E6,0)</f>
+        <v>25.000000000000071</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
@@ -1667,7 +1704,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1728,7 @@
       </c>
       <c r="D1">
         <f>MATCH(TRUE,INDEX(D6:D1005="",),0)-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1700,7 +1737,7 @@
       </c>
       <c r="D2">
         <f ca="1">IF(D1&gt;0,OFFSET(D5,D1,0),0)</f>
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1760,53 +1797,57 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6" t="e">
+      <c r="A6" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3">
+        <f>126+68</f>
+        <v>194</v>
+      </c>
+      <c r="E6" s="3">
+        <f>126+68</f>
+        <v>194</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" ref="G6:G14" si="0">F6/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" ref="J6:J14" si="1">E6/$I6*60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="7" t="e">
+        <v>258.66666666666663</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" ref="K6:K14" si="2">F6/$I6*60</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="7" t="e">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
         <f t="shared" ref="L6:L14" si="3">J6+K6</f>
-        <v>#DIV/0!</v>
+        <v>258.66666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="19"/>
-      <c r="D7" s="3">
-        <f>D6+E7-H7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="G7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
